--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\rvnath\projects\rnd\pareeksha\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravindranath.m\projects\satyanaash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDFE057-1516-4F59-9BB2-A5E929CD10F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D129B0E7-135D-4772-B544-EF1E315C0A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -103,14 +103,41 @@
     <t>/api/login</t>
   </si>
   <si>
-    <t>{"username": "admin", "password":"admn" }</t>
+    <t>/posts</t>
+  </si>
+  <si>
+    <t>Get a list of posts</t>
+  </si>
+  <si>
+    <t>payload with JWT header</t>
+  </si>
+  <si>
+    <t>Get Posts is invoked…</t>
+  </si>
+  <si>
+    <t>It returns the list of posts</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>authorizer</t>
+  </si>
+  <si>
+    <t>{"username": "admin", "password":"admin" }</t>
+  </si>
+  <si>
+    <t>Auth Type</t>
+  </si>
+  <si>
+    <t>authorized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +181,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -192,7 +226,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -208,6 +242,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -525,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.65" x14ac:dyDescent="1.5"/>
@@ -539,45 +579,49 @@
     <col min="4" max="5" width="6.05859375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="3"/>
     <col min="7" max="7" width="8.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.8203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="40.17578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="21" style="3"/>
+    <col min="11" max="11" width="10.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="21" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="1.55">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="1.55">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="29.65" thickTop="1" x14ac:dyDescent="1.5">
+      <c r="K1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29.65" thickTop="1" x14ac:dyDescent="1.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -603,13 +647,16 @@
         <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="58.5" x14ac:dyDescent="1.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -638,520 +685,121 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
+    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="1.5">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="58.5" x14ac:dyDescent="1.5">
-      <c r="A20" s="3">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="3">
-        <v>401</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="24" x14ac:dyDescent="1.5">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="6:9" ht="24" x14ac:dyDescent="1.5">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="6:9" ht="24" x14ac:dyDescent="1.5">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="6:9" ht="24" x14ac:dyDescent="1.5">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="6:9" ht="24" x14ac:dyDescent="1.5">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="I20" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{420F2B94-C7ED-47BC-B75D-89B926367868}"/>
     <hyperlink ref="F3" r:id="rId2" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{BCA183AA-38BB-48EB-9A9F-3EFA2A93E19B}"/>
     <hyperlink ref="F4" r:id="rId3" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{6BDC7942-30E3-49A7-ABE9-8E8D61BD7B64}"/>
-    <hyperlink ref="F5" r:id="rId4" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{6A292F8F-FC19-4FD7-9537-E5C9C07F98CA}"/>
-    <hyperlink ref="F6" r:id="rId5" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{2AD4F21D-1400-4B36-966F-B070EFD64CD2}"/>
-    <hyperlink ref="F7" r:id="rId6" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{C196B8E2-6940-47D7-965E-8BC1BC51EFF4}"/>
-    <hyperlink ref="F8" r:id="rId7" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{E09A6E8C-ED3C-415C-8148-1F7FD968F8D1}"/>
-    <hyperlink ref="F9" r:id="rId8" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{1E66209C-CF60-4030-9A6F-F0058FEA75FB}"/>
-    <hyperlink ref="F10" r:id="rId9" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{11A61DEE-46A0-4606-B8FE-9F65A02E07FE}"/>
-    <hyperlink ref="F11" r:id="rId10" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{89AAA601-53C8-46FF-8C6B-05FC6BD568FC}"/>
-    <hyperlink ref="F12" r:id="rId11" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{FD0C618D-104D-47B8-9D44-D5DD5513305E}"/>
-    <hyperlink ref="F13" r:id="rId12" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{A4EF40E7-6127-4C3F-AEDA-C149BA5CA7BE}"/>
-    <hyperlink ref="F14" r:id="rId13" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{B0B71F66-42E1-47D6-849F-B3C21C485B7A}"/>
-    <hyperlink ref="F15" r:id="rId14" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{F57A2D1D-6E5F-44CB-B4A1-CF50E31F9EA4}"/>
-    <hyperlink ref="F16" r:id="rId15" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{D864FE5D-1FC2-4074-9062-3C68298CE110}"/>
-    <hyperlink ref="F17" r:id="rId16" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{346D45AD-501E-4E96-9FF9-DE8C37C317FE}"/>
-    <hyperlink ref="F18" r:id="rId17" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{6435739E-9DE4-429A-971B-C92B2F8870BF}"/>
-    <hyperlink ref="F19" r:id="rId18" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{A0054A75-A8BF-4BB9-B06D-728566F73F63}"/>
-    <hyperlink ref="F20" r:id="rId19" display="http://localhost:8080/v1/accounts/users/login" xr:uid="{18F3B57B-AA6D-40BE-B60D-49B719E9290C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">authorizer</t>
   </si>
   <si>
-    <t xml:space="preserve">variables.username = “ravindranath”;</t>
+    <t xml:space="preserve">globals.username = “ravindranath”</t>
   </si>
   <si>
     <t xml:space="preserve">Login with missing username</t>
@@ -393,7 +393,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\rvnath\projects\rnd\satyanaash\scripting\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2800C5-589E-4900-9DB1-F0DC9030163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,118 +27,115 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">headers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input Payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre Test Script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Test Script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valid Credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login operation attempted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should succeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/api/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">content-type: application/json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"username": "{{username}}", "password":"admin" }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authorizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">globals.username = “ravindranath”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login with missing username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a payload that doesn't have username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should fail with 401 status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>Then</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>Input Payload</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Auth Type</t>
+  </si>
+  <si>
+    <t>Pre Test Script</t>
+  </si>
+  <si>
+    <t>Post Test Script</t>
+  </si>
+  <si>
+    <t>Successful Login</t>
+  </si>
+  <si>
+    <t>valid Credentials</t>
+  </si>
+  <si>
+    <t>Login operation attempted</t>
+  </si>
+  <si>
+    <t>It should succeed</t>
+  </si>
+  <si>
+    <t>/api/login</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>content-type: application/json</t>
+  </si>
+  <si>
+    <t>{"username": "{{username}}", "password":"admin" }</t>
+  </si>
+  <si>
+    <t>authorizer</t>
+  </si>
+  <si>
+    <t>Login with missing username</t>
+  </si>
+  <si>
+    <t>a payload that doesn't have username</t>
+  </si>
+  <si>
+    <t>It should fail with 401 status</t>
+  </si>
+  <si>
+    <t>{
   "password": "Mp%RmDvTlRGpImYBBcC@BAsw$hJixbRdobSah"
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Get a list of posts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payload with JWT header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Posts is invoked…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It returns the list of posts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/posts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authorized</t>
+    <t>Get a list of posts</t>
+  </si>
+  <si>
+    <t>payload with JWT header</t>
+  </si>
+  <si>
+    <t>Get Posts is invoked…</t>
+  </si>
+  <si>
+    <t>It returns the list of posts</t>
+  </si>
+  <si>
+    <t>/posts</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>authorized</t>
+  </si>
+  <si>
+    <t>globals.username = 'ravindranath'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,37 +144,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="3270Medium Nerd Font"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF44546A"/>
       <name val="3270Medium Nerd Font"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF44546A"/>
       <name val="Gautami"/>
@@ -180,23 +165,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="3270Medium Nerd Font"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="3270Medium Nerd Font"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Gautami"/>
@@ -207,7 +190,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="3270Medium Nerd Font"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -226,14 +208,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -243,85 +225,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Heading 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="21"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -380,40 +320,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="24" x14ac:dyDescent="1.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="26.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="25.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="36.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="9.14"/>
+    <col min="1" max="1" width="3.64453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.05859375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.46875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.234375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.1171875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.8203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.234375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.05859375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5859375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.9375" style="1" customWidth="1"/>
+    <col min="13" max="1024" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="18.399999999999999" x14ac:dyDescent="1.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -455,8 +703,8 @@
       </c>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:14" ht="58.5" x14ac:dyDescent="1.5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -483,32 +731,32 @@
       <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>200</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="87.75" x14ac:dyDescent="1.5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>17</v>
@@ -517,134 +765,129 @@
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="29.25" x14ac:dyDescent="1.5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" x14ac:dyDescent="1.5">
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="6:9" x14ac:dyDescent="1.5">
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="6:9" x14ac:dyDescent="1.5">
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="6:9" x14ac:dyDescent="1.5">
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="6:9" x14ac:dyDescent="1.5">
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
       <c r="I20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="/api/login"/>
-    <hyperlink ref="F3" r:id="rId2" display="/api/login"/>
-    <hyperlink ref="F4" r:id="rId3" display="/posts"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>